--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>Bandymas kai 2 studentai</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Bandymas kai 100000 studentų</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -126,14 +129,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -141,6 +138,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +428,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,523 +438,537 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="6">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>7.3109999999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>6.8239999999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>7.5780000000000003</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>7.4649999999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>8.2309999999999999</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>8.6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f>SUM(C5:H5)/6</f>
         <v>7.668166666666667</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="6">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>7.7160000000000002</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>7.2590000000000003</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8.4160000000000004</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>8.0039999999999996</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>7.7320000000000002</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>7.6870000000000003</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <f>SUM(C10:H10)/6</f>
         <v>7.8023333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="6">
-        <v>6</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="4">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>7.891</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>7.44</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>7.3710000000000004</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>8.15</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>9.1029999999999998</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>7.2380000000000004</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <f>SUM(C15:H15)/6</f>
         <v>7.8654999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>4</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="6">
-        <v>6</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="4">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>23.414999999999999</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>21.547999999999998</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>24.202999999999999</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>24.260999999999999</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>18.841000000000001</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>19.416</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <f>SUM(C20:H20)/6</f>
         <v>21.947333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>4</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="6">
-        <v>6</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="4">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>1131.44</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>1116.45</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>1148.1199999999999</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>749.24400000000003</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>828.274</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>873.76900000000001</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <f>SUM(C25:H25)/6</f>
         <v>974.54950000000008</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>3</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>4</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="6">
-        <v>6</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="4">
+        <v>6</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Bandymas kai 2 studentai</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Dar vis veikia</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,12 +930,10 @@
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,6 +952,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C3:E3"/>
@@ -958,17 +970,6 @@
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
   <si>
     <t>Bandymas kai 2 studentai</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>Bandymas kai 100000 studentų</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Dar vis veikia</t>
   </si>
 </sst>
 </file>
@@ -430,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,26 +767,26 @@
         <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>23.414999999999999</v>
+        <v>8.2710000000000008</v>
       </c>
       <c r="D20" s="1">
-        <v>21.547999999999998</v>
+        <v>11.999000000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>24.202999999999999</v>
+        <v>8.1150000000000002</v>
       </c>
       <c r="F20" s="1">
-        <v>24.260999999999999</v>
+        <v>6.8339999999999996</v>
       </c>
       <c r="G20" s="1">
-        <v>18.841000000000001</v>
+        <v>11.417999999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>19.416</v>
+        <v>11.071</v>
       </c>
       <c r="I20" s="4">
         <f>SUM(C20:H20)/6</f>
-        <v>21.947333333333333</v>
+        <v>9.6180000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -852,26 +846,26 @@
         <v>9</v>
       </c>
       <c r="C25" s="1">
-        <v>1131.44</v>
+        <v>27.462</v>
       </c>
       <c r="D25" s="1">
-        <v>1116.45</v>
+        <v>18.329000000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>1148.1199999999999</v>
+        <v>19.713999999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>749.24400000000003</v>
+        <v>20.116</v>
       </c>
       <c r="G25" s="1">
-        <v>828.274</v>
+        <v>13.718</v>
       </c>
       <c r="H25" s="1">
-        <v>873.76900000000001</v>
+        <v>19.300999999999998</v>
       </c>
       <c r="I25" s="4">
         <f>SUM(C25:H25)/6</f>
-        <v>974.54950000000008</v>
+        <v>19.773333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -930,39 +924,31 @@
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>11</v>
+      <c r="C30" s="5">
+        <v>156.767</v>
+      </c>
+      <c r="D30" s="1">
+        <v>150.30600000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>149.91800000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>192.71799999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <v>166.148</v>
+      </c>
+      <c r="H30" s="1">
+        <v>145.96</v>
+      </c>
+      <c r="I30" s="4">
+        <f>SUM(C30:H30)/6</f>
+        <v>160.30283333333333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C3:E3"/>
@@ -970,6 +956,17 @@
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
-  <si>
-    <t>Bandymas kai 2 studentai</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Vidurkis</t>
   </si>
@@ -422,19 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -442,20 +438,11 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -465,25 +452,25 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -504,42 +491,42 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.3109999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6.8239999999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7.5780000000000003</v>
-      </c>
-      <c r="F5" s="4">
-        <v>7.4649999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8.2309999999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <v>8.6</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.7160000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.2590000000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.4160000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.0039999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.6870000000000003</v>
       </c>
       <c r="I5" s="4">
         <f>SUM(C5:H5)/6</f>
-        <v>7.668166666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.8023333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>2</v>
@@ -552,25 +539,25 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -591,42 +578,41 @@
         <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>7.7160000000000002</v>
+        <v>7.891</v>
       </c>
       <c r="D10" s="1">
-        <v>7.2590000000000003</v>
+        <v>7.44</v>
       </c>
       <c r="E10" s="1">
-        <v>8.4160000000000004</v>
+        <v>7.3710000000000004</v>
       </c>
       <c r="F10" s="1">
-        <v>8.0039999999999996</v>
+        <v>8.15</v>
       </c>
       <c r="G10" s="1">
-        <v>7.7320000000000002</v>
+        <v>9.1029999999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>7.6870000000000003</v>
+        <v>7.2380000000000004</v>
       </c>
       <c r="I10" s="4">
         <f>SUM(C10:H10)/6</f>
-        <v>7.8023333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.8654999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>3</v>
@@ -639,25 +625,25 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -678,35 +664,35 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>7.891</v>
+        <v>8.2710000000000008</v>
       </c>
       <c r="D15" s="1">
-        <v>7.44</v>
+        <v>11.999000000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>7.3710000000000004</v>
+        <v>8.1150000000000002</v>
       </c>
       <c r="F15" s="1">
-        <v>8.15</v>
+        <v>6.8339999999999996</v>
       </c>
       <c r="G15" s="1">
-        <v>9.1029999999999998</v>
+        <v>11.417999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>7.2380000000000004</v>
+        <v>11.071</v>
       </c>
       <c r="I15" s="4">
         <f>SUM(C15:H15)/6</f>
-        <v>7.8654999999999999</v>
+        <v>9.6180000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -725,12 +711,12 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -738,7 +724,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -759,39 +745,39 @@
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>8.2710000000000008</v>
+        <v>11.467000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>11.999000000000001</v>
+        <v>18.329000000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>8.1150000000000002</v>
+        <v>11.358000000000001</v>
       </c>
       <c r="F20" s="1">
-        <v>6.8339999999999996</v>
+        <v>11.887</v>
       </c>
       <c r="G20" s="1">
-        <v>11.417999999999999</v>
+        <v>13.718</v>
       </c>
       <c r="H20" s="1">
-        <v>11.071</v>
+        <v>19.300999999999998</v>
       </c>
       <c r="I20" s="4">
         <f>SUM(C20:H20)/6</f>
-        <v>9.6180000000000003</v>
+        <v>14.343333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -804,12 +790,12 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -817,7 +803,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -838,135 +824,53 @@
         <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1">
-        <v>27.462</v>
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>186.03899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>18.329000000000001</v>
+        <v>180.364</v>
       </c>
       <c r="E25" s="1">
-        <v>19.713999999999999</v>
+        <v>180.38499999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>20.116</v>
+        <v>179.33</v>
       </c>
       <c r="G25" s="1">
-        <v>13.718</v>
+        <v>203.42599999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>19.300999999999998</v>
+        <v>176.672</v>
       </c>
       <c r="I25" s="4">
         <f>SUM(C25:H25)/6</f>
-        <v>19.773333333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5</v>
-      </c>
-      <c r="H29" s="4">
-        <v>6</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="5">
-        <v>156.767</v>
-      </c>
-      <c r="D30" s="1">
-        <v>150.30600000000001</v>
-      </c>
-      <c r="E30" s="1">
-        <v>149.91800000000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>192.71799999999999</v>
-      </c>
-      <c r="G30" s="1">
-        <v>166.148</v>
-      </c>
-      <c r="H30" s="1">
-        <v>145.96</v>
-      </c>
-      <c r="I30" s="4">
-        <f>SUM(C30:H30)/6</f>
-        <v>160.30283333333333</v>
+        <v>184.36933333333334</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
+  <mergeCells count="15">
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
-  <si>
-    <t>Vidurkis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Bandymas kai 10 studentų</t>
   </si>
@@ -41,19 +38,25 @@
     <t>Bandymas kai 10000 studentų</t>
   </si>
   <si>
-    <t>Bandymo Nr.</t>
-  </si>
-  <si>
     <t>Egzamino rez. (Vid)</t>
   </si>
   <si>
-    <t>Egzamino rez. (Med)</t>
-  </si>
-  <si>
-    <t>Laikas (sekundėmis)</t>
-  </si>
-  <si>
-    <t>Bandymas kai 100000 studentų</t>
+    <t>Elementų generavimas</t>
+  </si>
+  <si>
+    <t>Elementų rikiavimas</t>
+  </si>
+  <si>
+    <t>Bendras</t>
+  </si>
+  <si>
+    <t>Egzamino rez. (Mediana)</t>
+  </si>
+  <si>
+    <t>Elementų rušiaviamas</t>
+  </si>
+  <si>
+    <t>Elementų rašimas į failus</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
       <charset val="186"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +90,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -133,12 +141,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,458 +428,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f>SUM(C4:F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f>SUM(C5:F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7.7160000000000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7.2590000000000003</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8.4160000000000004</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.0039999999999996</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7.6870000000000003</v>
-      </c>
-      <c r="I5" s="4">
-        <f>SUM(C5:H5)/6</f>
-        <v>7.8023333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.5626000000000001E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <f>SUM(C9:F9)</f>
+        <v>1.5626000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.5518000000000001E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>SUM(C10:F10)</f>
+        <v>1.5518000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>6</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7.891</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7.44</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7.3710000000000004</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8.15</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9.1029999999999998</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7.2380000000000004</v>
-      </c>
-      <c r="I10" s="4">
-        <f>SUM(C10:H10)/6</f>
-        <v>7.8654999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3.1144000000000002E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.5630999999999999E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.5623E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.5626000000000001E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>SUM(C14:F14)</f>
+        <v>7.8023999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.5624000000000001E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.5628E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.5623E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f>SUM(C15:F15)</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4">
-        <v>6</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8.2710000000000008</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11.999000000000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8.1150000000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6.8339999999999996</v>
-      </c>
-      <c r="G15" s="1">
-        <v>11.417999999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>11.071</v>
-      </c>
-      <c r="I15" s="4">
-        <f>SUM(C15:H15)/6</f>
-        <v>9.6180000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.17177500000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7.8133999999999995E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.5626999999999999E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.20313800000000001</v>
+      </c>
+      <c r="G19" s="3">
+        <f>SUM(C19:F19)</f>
+        <v>0.46867400000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.17177500000000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7.8130000000000005E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3.1254999999999998E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.17188500000000001</v>
+      </c>
+      <c r="G20" s="3">
+        <f>SUM(C20:F20)</f>
+        <v>0.45304500000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4">
-        <v>6</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>11.467000000000001</v>
-      </c>
-      <c r="D20" s="1">
-        <v>18.329000000000001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>11.358000000000001</v>
-      </c>
-      <c r="F20" s="1">
-        <v>11.887</v>
-      </c>
-      <c r="G20" s="1">
-        <v>13.718</v>
-      </c>
-      <c r="H20" s="1">
-        <v>19.300999999999998</v>
-      </c>
-      <c r="I20" s="4">
-        <f>SUM(C20:H20)/6</f>
-        <v>14.343333333333334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="4">
-        <v>5</v>
-      </c>
-      <c r="H24" s="4">
-        <v>6</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="C24" s="5">
+        <v>1.8906499999999999</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.4063399999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.20314199999999999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.5939199999999998</v>
+      </c>
+      <c r="G24" s="3">
+        <f>SUM(C24:F24)</f>
+        <v>6.0940519999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="5">
-        <v>186.03899999999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>180.364</v>
-      </c>
-      <c r="E25" s="1">
-        <v>180.38499999999999</v>
-      </c>
-      <c r="F25" s="1">
-        <v>179.33</v>
-      </c>
-      <c r="G25" s="1">
-        <v>203.42599999999999</v>
-      </c>
-      <c r="H25" s="1">
-        <v>176.672</v>
-      </c>
-      <c r="I25" s="4">
-        <f>SUM(C25:H25)/6</f>
-        <v>184.36933333333334</v>
+        <v>1.9531499999999999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.3438399999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.21876100000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.3751600000000002</v>
+      </c>
+      <c r="G25" s="3">
+        <f>SUM(C25:F25)</f>
+        <v>5.8909110000000009</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Bandymas kai 10 studentų</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Elementų rašimas į failus</t>
+  </si>
+  <si>
+    <t>Bandymas kai 100000 studentų</t>
   </si>
 </sst>
 </file>
@@ -144,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,18 +456,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -531,18 +534,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -608,18 +611,18 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
@@ -682,17 +685,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
@@ -752,17 +755,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -162,13 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,59 +488,59 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -556,7 +556,7 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
@@ -713,33 +713,33 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="P8" s="6" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="P8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="N9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="2" t="s">
         <v>14</v>
       </c>
@@ -802,17 +802,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f>SUM(C10:F10)</f>
-        <v>1.5626000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="4">
-        <v>2.4135E-2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="M10" s="4">
-        <v>6.0749999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <f>SUM(J10:M10)</f>
-        <v>3.0210000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>12</v>
@@ -840,11 +840,11 @@
         <v>0</v>
       </c>
       <c r="T10" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
         <f>SUM(Q10:T10)</f>
-        <v>1.5626000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -855,36 +855,36 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>1.55502E-2</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>1.5518000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <f>SUM(C11:F11)</f>
-        <v>1.5518000000000001E-2</v>
+        <v>1.55502E-2</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>1.9970000000000001E-3</v>
       </c>
       <c r="K11" s="4">
-        <v>1.0009999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>5.0020000000000004E-3</v>
+        <v>2.003E-3</v>
       </c>
       <c r="N11" s="2">
         <f>SUM(J11:M11)</f>
-        <v>1.0003000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>13</v>
@@ -899,41 +899,41 @@
         <v>0</v>
       </c>
       <c r="T11" s="4">
-        <v>1.5518000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2">
         <f>SUM(Q11:T11)</f>
-        <v>1.5518000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="P13" s="6" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="P13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="N14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="2" t="s">
         <v>14</v>
       </c>
@@ -987,58 +987,58 @@
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <v>3.1144000000000002E-2</v>
+        <v>1.5500999999999999E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>1.5630999999999999E-2</v>
+        <v>1.5624000000000001E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>1.5623E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <v>1.5626000000000001E-2</v>
       </c>
       <c r="G15" s="2">
         <f>SUM(C15:F15)</f>
-        <v>7.8023999999999996E-2</v>
+        <v>4.6751000000000001E-2</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="4">
-        <v>0.102025</v>
+        <v>1.5506000000000001E-2</v>
       </c>
       <c r="K15" s="4">
-        <v>2.9989999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>1.1004999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>2.2006999999999999E-2</v>
+        <v>1.5618E-2</v>
       </c>
       <c r="N15" s="2">
         <f>SUM(J15:M15)</f>
-        <v>0.13803599999999999</v>
+        <v>3.1123999999999999E-2</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="4">
-        <v>3.1144000000000002E-2</v>
+        <v>1.5500999999999999E-2</v>
       </c>
       <c r="R15" s="4">
-        <v>1.5630999999999999E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="S15" s="4">
-        <v>1.5623E-2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="4">
         <v>1.5626000000000001E-2</v>
       </c>
       <c r="U15" s="2">
         <f>SUM(Q15:T15)</f>
-        <v>7.8023999999999996E-2</v>
+        <v>4.6752000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1046,88 +1046,88 @@
         <v>13</v>
       </c>
       <c r="C16" s="4">
-        <v>1.5624000000000001E-2</v>
+        <v>1.5497E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>1.5626999999999999E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>1.5628E-2</v>
+        <v>1.5502E-2</v>
       </c>
       <c r="F16" s="4">
-        <v>1.5623E-2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(C16:F16)</f>
-        <v>4.6875E-2</v>
+        <v>4.6626000000000001E-2</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="4">
-        <v>9.1026999999999997E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="K16" s="4">
-        <v>1.0009999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>1.7003999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>3.2009999999999997E-2</v>
+        <v>1.5624000000000001E-2</v>
       </c>
       <c r="N16" s="2">
         <f>SUM(J16:M16)</f>
-        <v>0.141042</v>
+        <v>3.1123999999999999E-2</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q16" s="4">
-        <v>1.5624000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="S16" s="4">
-        <v>1.5628E-2</v>
+        <v>0</v>
       </c>
       <c r="T16" s="4">
-        <v>1.5623E-2</v>
+        <v>1.5626000000000001E-2</v>
       </c>
       <c r="U16" s="2">
         <f>SUM(Q16:T16)</f>
-        <v>4.6875E-2</v>
+        <v>3.1251000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="6" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="P18" s="6" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="P18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="N19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1181,58 +1181,58 @@
         <v>12</v>
       </c>
       <c r="C20" s="4">
-        <v>0.17177500000000001</v>
+        <v>9.3621999999999997E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>7.8133999999999995E-2</v>
+        <v>0.19884599999999999</v>
       </c>
       <c r="E20" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>3.1253999999999997E-2</v>
       </c>
       <c r="F20" s="4">
-        <v>0.20313800000000001</v>
+        <v>9.3754000000000004E-2</v>
       </c>
       <c r="G20" s="2">
         <f>SUM(C20:F20)</f>
-        <v>0.46867400000000004</v>
+        <v>0.41747600000000001</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="4">
-        <v>6.3460999999999999</v>
+        <v>7.8123999999999999E-2</v>
       </c>
       <c r="K20" s="4">
-        <v>2.7005000000000001E-2</v>
+        <v>1.5626999999999999E-2</v>
       </c>
       <c r="L20" s="4">
-        <v>2.3916900000000001</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="M20" s="4">
-        <v>0.462119</v>
+        <v>9.3755000000000005E-2</v>
       </c>
       <c r="N20" s="2">
         <f>SUM(J20:M20)</f>
-        <v>9.2269139999999989</v>
+        <v>0.20313100000000001</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.17177500000000001</v>
+        <v>7.8128000000000003E-2</v>
       </c>
       <c r="R20" s="4">
-        <v>7.8133999999999995E-2</v>
+        <v>0.21876300000000001</v>
       </c>
       <c r="S20" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>1.5626000000000001E-2</v>
       </c>
       <c r="T20" s="4">
-        <v>0.20313800000000001</v>
+        <v>9.0572E-2</v>
       </c>
       <c r="U20" s="2">
         <f>SUM(Q20:T20)</f>
-        <v>0.46867400000000004</v>
+        <v>0.40308900000000003</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
@@ -1240,88 +1240,88 @@
         <v>13</v>
       </c>
       <c r="C21" s="4">
-        <v>0.17177500000000001</v>
+        <v>7.8132999999999994E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>7.8130000000000005E-2</v>
+        <v>0.19603219999999999</v>
       </c>
       <c r="E21" s="4">
-        <v>3.1254999999999998E-2</v>
+        <v>1.5628E-2</v>
       </c>
       <c r="F21" s="4">
-        <v>0.17188500000000001</v>
+        <v>9.3756000000000006E-2</v>
       </c>
       <c r="G21" s="2">
         <f>SUM(C21:F21)</f>
-        <v>0.45304500000000003</v>
+        <v>0.38354919999999998</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="4">
-        <v>6.6786799999999999</v>
+        <v>7.9642000000000004E-2</v>
       </c>
       <c r="K21" s="4">
-        <v>1.9005000000000001E-2</v>
+        <v>1.5626999999999999E-2</v>
       </c>
       <c r="L21" s="4">
-        <v>2.48963</v>
+        <v>1.5626000000000001E-2</v>
       </c>
       <c r="M21" s="4">
-        <v>0.76519099999999995</v>
+        <v>9.3754000000000004E-2</v>
       </c>
       <c r="N21" s="2">
         <f>SUM(J21:M21)</f>
-        <v>9.9525059999999996</v>
+        <v>0.20464900000000003</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.17177500000000001</v>
+        <v>7.8007000000000007E-2</v>
       </c>
       <c r="R21" s="4">
-        <v>7.8130000000000005E-2</v>
+        <v>0.22176399999999999</v>
       </c>
       <c r="S21" s="4">
-        <v>3.1254999999999998E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="T21" s="4">
-        <v>0.17188500000000001</v>
+        <v>9.3755000000000005E-2</v>
       </c>
       <c r="U21" s="2">
         <f>SUM(Q21:T21)</f>
-        <v>0.45304500000000003</v>
+        <v>0.42477600000000004</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="P23" s="6" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="P23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="N24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1375,58 +1375,58 @@
         <v>12</v>
       </c>
       <c r="C25" s="4">
-        <v>1.8906499999999999</v>
+        <v>0.93453900000000001</v>
       </c>
       <c r="D25" s="4">
-        <v>1.4063399999999999</v>
+        <v>3.2726899999999999</v>
       </c>
       <c r="E25" s="4">
-        <v>0.20314199999999999</v>
+        <v>0.28126699999999999</v>
       </c>
       <c r="F25" s="4">
-        <v>2.5939199999999998</v>
+        <v>1.3829</v>
       </c>
       <c r="G25" s="2">
         <f>SUM(C25:F25)</f>
-        <v>6.0940519999999996</v>
+        <v>5.8713959999999998</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="4">
-        <v>1.8906499999999999</v>
+        <v>0.94158600000000003</v>
       </c>
       <c r="K25" s="4">
-        <v>1.4063399999999999</v>
+        <v>0.15626300000000001</v>
       </c>
       <c r="L25" s="4">
-        <v>0.20314199999999999</v>
+        <v>0.182006</v>
       </c>
       <c r="M25" s="4">
-        <v>2.5939199999999998</v>
+        <v>1.01938</v>
       </c>
       <c r="N25" s="2">
         <f>SUM(J25:M25)</f>
-        <v>6.0940519999999996</v>
+        <v>2.2992349999999999</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="4">
-        <v>1.8906499999999999</v>
+        <v>0.88947600000000004</v>
       </c>
       <c r="R25" s="4">
-        <v>1.4063399999999999</v>
+        <v>3.4525600000000001</v>
       </c>
       <c r="S25" s="4">
-        <v>0.20314199999999999</v>
+        <v>0.191942</v>
       </c>
       <c r="T25" s="4">
-        <v>2.5939199999999998</v>
+        <v>1.27817</v>
       </c>
       <c r="U25" s="2">
         <f>SUM(Q25:T25)</f>
-        <v>6.0940519999999996</v>
+        <v>5.8121480000000005</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -1434,72 +1434,62 @@
         <v>13</v>
       </c>
       <c r="C26" s="4">
-        <v>1.9531499999999999</v>
+        <v>0.93361799999999995</v>
       </c>
       <c r="D26" s="4">
-        <v>1.3438399999999999</v>
+        <v>2.8690699999999998</v>
       </c>
       <c r="E26" s="4">
-        <v>0.21876100000000001</v>
+        <v>0.28127099999999999</v>
       </c>
       <c r="F26" s="4">
-        <v>2.3751600000000002</v>
+        <v>1.41875</v>
       </c>
       <c r="G26" s="2">
         <f>SUM(C26:F26)</f>
-        <v>5.8909110000000009</v>
+        <v>5.5027090000000003</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="4">
-        <v>1.9531499999999999</v>
+        <v>0.90477099999999999</v>
       </c>
       <c r="K26" s="4">
-        <v>1.3438399999999999</v>
+        <v>0.14063400000000001</v>
       </c>
       <c r="L26" s="4">
-        <v>0.21876100000000001</v>
+        <v>0.15976499999999999</v>
       </c>
       <c r="M26" s="4">
-        <v>2.3751600000000002</v>
+        <v>0.99831199999999998</v>
       </c>
       <c r="N26" s="2">
         <f>SUM(J26:M26)</f>
-        <v>5.8909110000000009</v>
+        <v>2.2034819999999997</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q26" s="4">
-        <v>1.9531499999999999</v>
+        <v>0.88727500000000004</v>
       </c>
       <c r="R26" s="4">
-        <v>1.3438399999999999</v>
+        <v>2.8636699999999999</v>
       </c>
       <c r="S26" s="4">
-        <v>0.21876100000000001</v>
+        <v>0.162467</v>
       </c>
       <c r="T26" s="4">
-        <v>2.3751600000000002</v>
+        <v>1.1427099999999999</v>
       </c>
       <c r="U26" s="2">
         <f>SUM(Q26:T26)</f>
-        <v>5.8909110000000009</v>
+        <v>5.0561219999999993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I8:N8"/>
     <mergeCell ref="P23:U23"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="P2:U2"/>
@@ -1508,6 +1498,16 @@
     <mergeCell ref="P8:U8"/>
     <mergeCell ref="P13:U13"/>
     <mergeCell ref="P18:U18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -215,15 +215,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,6 +226,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,107 +552,107 @@
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="W2" s="8" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="W2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="P3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="W3" s="7" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="W3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11"/>
-      <c r="W4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="P4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
+      <c r="W4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -883,38 +883,38 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="P9" s="9" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="P9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="W9" s="9" t="s">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8"/>
+      <c r="W9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>1.55502E-2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="4">
         <v>0</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="U12" s="2">
         <f>SUM(Q12:T12)</f>
-        <v>1.55502E-2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>13</v>
@@ -1139,38 +1139,38 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="6" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="P14" s="9" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="P14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="W14" s="9" t="s">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8"/>
+      <c r="W14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="11"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1281,20 +1281,20 @@
         <v>12</v>
       </c>
       <c r="Q16" s="4">
-        <v>1.5500999999999999E-2</v>
+        <v>1.5499000000000001E-2</v>
       </c>
       <c r="R16" s="4">
-        <v>1.5624000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>9.3755000000000005E-2</v>
       </c>
       <c r="T16" s="4">
         <v>1.5626000000000001E-2</v>
       </c>
       <c r="U16" s="2">
         <f>SUM(Q16:T16)</f>
-        <v>4.6751000000000001E-2</v>
+        <v>0.12488</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>12</v>
@@ -1359,20 +1359,20 @@
         <v>13</v>
       </c>
       <c r="Q17" s="4">
-        <v>1.5497E-2</v>
+        <v>1.5502999999999999E-2</v>
       </c>
       <c r="R17" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="4">
-        <v>1.5502E-2</v>
+        <v>0.15656</v>
       </c>
       <c r="T17" s="4">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="U17" s="2">
         <f>SUM(Q17:T17)</f>
-        <v>4.6626000000000001E-2</v>
+        <v>0.18768799999999999</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>13</v>
@@ -1395,38 +1395,38 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="P19" s="9" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="P19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
-      <c r="W19" s="9" t="s">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="8"/>
+      <c r="W19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="11"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
@@ -1537,20 +1537,20 @@
         <v>12</v>
       </c>
       <c r="Q21" s="4">
-        <v>9.3621999999999997E-2</v>
+        <v>9.3628000000000003E-2</v>
       </c>
       <c r="R21" s="4">
-        <v>0.19884599999999999</v>
+        <v>0.10938199999999999</v>
       </c>
       <c r="S21" s="4">
-        <v>3.1253999999999997E-2</v>
+        <v>8.7505799999999994</v>
       </c>
       <c r="T21" s="4">
-        <v>9.3754000000000004E-2</v>
+        <v>0.20313800000000001</v>
       </c>
       <c r="U21" s="2">
         <f>SUM(Q21:T21)</f>
-        <v>0.41747600000000001</v>
+        <v>9.1567279999999993</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>12</v>
@@ -1615,20 +1615,20 @@
         <v>13</v>
       </c>
       <c r="Q22" s="4">
-        <v>7.8132999999999994E-2</v>
+        <v>7.7997999999999998E-2</v>
       </c>
       <c r="R22" s="4">
-        <v>0.19603219999999999</v>
+        <v>0.12500900000000001</v>
       </c>
       <c r="S22" s="4">
-        <v>1.5628E-2</v>
+        <v>14.329000000000001</v>
       </c>
       <c r="T22" s="4">
-        <v>9.3756000000000006E-2</v>
+        <v>0.18751200000000001</v>
       </c>
       <c r="U22" s="2">
         <f>SUM(Q22:T22)</f>
-        <v>0.38354919999999998</v>
+        <v>14.719519</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>13</v>
@@ -1651,38 +1651,38 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="6" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="I24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="P24" s="9" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="P24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="W24" s="9" t="s">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="8"/>
+      <c r="W24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="11"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="8"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
@@ -1793,20 +1793,20 @@
         <v>12</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.93453900000000001</v>
+        <v>0.99993600000000005</v>
       </c>
       <c r="R26" s="4">
-        <v>3.2726899999999999</v>
+        <v>1.3282099999999999</v>
       </c>
       <c r="S26" s="4">
-        <v>0.28126699999999999</v>
+        <v>1011.23</v>
       </c>
       <c r="T26" s="4">
-        <v>1.3829</v>
+        <v>2.4330099999999999</v>
       </c>
       <c r="U26" s="2">
         <f>SUM(Q26:T26)</f>
-        <v>5.8713959999999998</v>
+        <v>1015.9911559999999</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>12</v>
@@ -1871,20 +1871,20 @@
         <v>13</v>
       </c>
       <c r="Q27" s="4">
-        <v>0.93361799999999995</v>
+        <v>1.1249499999999999</v>
       </c>
       <c r="R27" s="4">
-        <v>2.8690699999999998</v>
+        <v>1.48447</v>
       </c>
       <c r="S27" s="4">
-        <v>0.28127099999999999</v>
+        <v>1588.69</v>
       </c>
       <c r="T27" s="4">
-        <v>1.41875</v>
+        <v>2.4689100000000002</v>
       </c>
       <c r="U27" s="2">
         <f>SUM(Q27:T27)</f>
-        <v>5.5027090000000003</v>
+        <v>1593.7683300000001</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>13</v>
@@ -1907,56 +1907,56 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="7" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="P29" s="12" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="P29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="P30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="P30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="8"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
@@ -2132,30 +2132,30 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="I35" s="6" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="I35" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="P35" s="9" t="s">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="P35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="11"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
@@ -2326,30 +2326,30 @@
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="I40" s="6" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="I40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="P40" s="9" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="P40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="11"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="8"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
@@ -2520,30 +2520,30 @@
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="I45" s="6" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="I45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="P45" s="9" t="s">
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="P45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="11"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="8"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -2714,30 +2714,30 @@
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="I50" s="6" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="I50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="P50" s="9" t="s">
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="P50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="11"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="8"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
@@ -2908,56 +2908,56 @@
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="I55" s="7" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="I55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="P55" s="7" t="s">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="P55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="I56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="P56" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="11"/>
+      <c r="B56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="I56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="P56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="8"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
@@ -3133,30 +3133,30 @@
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="I61" s="6" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="I61" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="P61" s="9" t="s">
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="P61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="11"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="8"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
@@ -3327,30 +3327,30 @@
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="I66" s="6" t="s">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="I66" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="P66" s="9" t="s">
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="P66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="11"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="8"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
@@ -3521,30 +3521,30 @@
       </c>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="I71" s="6" t="s">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="I71" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="P71" s="9" t="s">
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="P71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="11"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="8"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
@@ -3715,30 +3715,30 @@
       </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="I76" s="6" t="s">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="I76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="P76" s="9" t="s">
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="P76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="11"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="8"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
@@ -3910,18 +3910,42 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="P71:U71"/>
-    <mergeCell ref="P76:U76"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="P30:U30"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W9:AB9"/>
-    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="I66:N66"/>
     <mergeCell ref="I71:N71"/>
     <mergeCell ref="I76:N76"/>
     <mergeCell ref="P2:U2"/>
@@ -3938,42 +3962,18 @@
     <mergeCell ref="P61:U61"/>
     <mergeCell ref="P66:U66"/>
     <mergeCell ref="P50:U50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I56:N56"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W9:AB9"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="P71:U71"/>
+    <mergeCell ref="P76:U76"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="P30:U30"/>
+    <mergeCell ref="P35:U35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -215,6 +215,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,15 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="O37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,107 +552,107 @@
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="W2" s="10" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="P3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="W3" s="11" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="W3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="P4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-      <c r="W4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="P4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="11"/>
+      <c r="W4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="11"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -883,38 +883,38 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="P9" s="6" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="8"/>
-      <c r="W9" s="6" t="s">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="W9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="11"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -1139,38 +1139,38 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="12" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="P14" s="6" t="s">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="P14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="8"/>
-      <c r="W14" s="6" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="W14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="8"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="11"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1395,38 +1395,38 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="12" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="P19" s="6" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="P19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="8"/>
-      <c r="W19" s="6" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="11"/>
+      <c r="W19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
@@ -1651,38 +1651,38 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="I24" s="12" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="I24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="P24" s="6" t="s">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="P24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="8"/>
-      <c r="W24" s="6" t="s">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="11"/>
+      <c r="W24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="8"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="11"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
@@ -1907,56 +1907,56 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="P29" s="9" t="s">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="P29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="I30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="P30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="8"/>
+      <c r="B30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="P30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="11"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
@@ -2119,11 +2119,11 @@
         <v>0</v>
       </c>
       <c r="T33" s="4">
-        <v>7.6810000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2">
         <f>SUM(Q33:T33)</f>
-        <v>7.6810000000000003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
@@ -2132,30 +2132,30 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="I35" s="12" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="I35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="P35" s="6" t="s">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="P35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="8"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="11"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
@@ -2259,11 +2259,11 @@
         <v>0</v>
       </c>
       <c r="T37" s="4">
-        <v>0</v>
+        <v>1.5620999999999999E-2</v>
       </c>
       <c r="U37" s="2">
         <f>SUM(Q37:T37)</f>
-        <v>0</v>
+        <v>1.5620999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>13</v>
       </c>
       <c r="Q38" s="4">
-        <v>1.9970000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4">
         <v>0</v>
@@ -2318,38 +2318,38 @@
         <v>0</v>
       </c>
       <c r="T38" s="4">
-        <v>2.003E-3</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2">
         <f>SUM(Q38:T38)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="I40" s="12" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="I40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="P40" s="6" t="s">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="P40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="8"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="11"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
@@ -2444,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="4">
-        <v>1.5506000000000001E-2</v>
+        <v>1.5504E-2</v>
       </c>
       <c r="R42" s="4">
         <v>0</v>
@@ -2453,11 +2453,11 @@
         <v>0</v>
       </c>
       <c r="T42" s="4">
-        <v>1.5618E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="U42" s="2">
         <f>SUM(Q42:T42)</f>
-        <v>3.1123999999999999E-2</v>
+        <v>4.6754000000000004E-2</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="Q43" s="4">
-        <v>1.55E-2</v>
+        <v>1.5502E-2</v>
       </c>
       <c r="R43" s="4">
         <v>0</v>
@@ -2512,38 +2512,38 @@
         <v>0</v>
       </c>
       <c r="T43" s="4">
-        <v>1.5624000000000001E-2</v>
+        <v>3.1253000000000003E-2</v>
       </c>
       <c r="U43" s="2">
         <f>SUM(Q43:T43)</f>
-        <v>3.1123999999999999E-2</v>
+        <v>4.6755000000000005E-2</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="I45" s="12" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="I45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="P45" s="6" t="s">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="P45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="8"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="11"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -2638,20 +2638,20 @@
         <v>12</v>
       </c>
       <c r="Q47" s="4">
-        <v>7.8123999999999999E-2</v>
+        <v>0.100273</v>
       </c>
       <c r="R47" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="S47" s="4">
-        <v>1.5625E-2</v>
+        <v>3.1253000000000003E-2</v>
       </c>
       <c r="T47" s="4">
-        <v>9.3755000000000005E-2</v>
+        <v>0.200547</v>
       </c>
       <c r="U47" s="2">
         <f>SUM(Q47:T47)</f>
-        <v>0.20313100000000001</v>
+        <v>0.33207300000000001</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
@@ -2697,47 +2697,47 @@
         <v>13</v>
       </c>
       <c r="Q48" s="4">
-        <v>7.9642000000000004E-2</v>
+        <v>9.3752000000000002E-2</v>
       </c>
       <c r="R48" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="S48" s="4">
         <v>1.5626000000000001E-2</v>
       </c>
       <c r="T48" s="4">
-        <v>9.3754000000000004E-2</v>
+        <v>0.20313800000000001</v>
       </c>
       <c r="U48" s="2">
         <f>SUM(Q48:T48)</f>
-        <v>0.20464900000000003</v>
+        <v>0.31251600000000002</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="I50" s="12" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="I50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="P50" s="6" t="s">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="P50" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="8"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="11"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
@@ -2832,20 +2832,20 @@
         <v>12</v>
       </c>
       <c r="Q52" s="4">
-        <v>0.94158600000000003</v>
+        <v>0.98432299999999995</v>
       </c>
       <c r="R52" s="4">
-        <v>0.15626300000000001</v>
+        <v>7.8129000000000004E-2</v>
       </c>
       <c r="S52" s="4">
-        <v>0.182006</v>
+        <v>0.18557699999999999</v>
       </c>
       <c r="T52" s="4">
-        <v>1.01938</v>
+        <v>2.4689100000000002</v>
       </c>
       <c r="U52" s="2">
         <f>SUM(Q52:T52)</f>
-        <v>2.2992349999999999</v>
+        <v>3.716939</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
@@ -2891,73 +2891,73 @@
         <v>13</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.90477099999999999</v>
+        <v>0.96869400000000006</v>
       </c>
       <c r="R53" s="4">
-        <v>0.14063400000000001</v>
+        <v>7.8129000000000004E-2</v>
       </c>
       <c r="S53" s="4">
-        <v>0.15976499999999999</v>
+        <v>0.18751100000000001</v>
       </c>
       <c r="T53" s="4">
-        <v>0.99831199999999998</v>
+        <v>4.4473099999999999</v>
       </c>
       <c r="U53" s="2">
         <f>SUM(Q53:T53)</f>
-        <v>2.2034819999999997</v>
+        <v>5.6816440000000004</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="I55" s="11" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="I55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="P55" s="11" t="s">
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="P55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="I56" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="P56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="8"/>
+      <c r="B56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="P56" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="11"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
@@ -3133,30 +3133,30 @@
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="I61" s="12" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="I61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="P61" s="6" t="s">
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="P61" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="8"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="11"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
@@ -3260,11 +3260,11 @@
         <v>0</v>
       </c>
       <c r="T63" s="4">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="U63" s="2">
         <f>SUM(Q63:T63)</f>
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
@@ -3319,38 +3319,38 @@
         <v>0</v>
       </c>
       <c r="T64" s="4">
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="U64" s="2">
         <f>SUM(Q64:T64)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="I66" s="12" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="I66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="P66" s="6" t="s">
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="P66" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="8"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="11"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
@@ -3445,20 +3445,20 @@
         <v>12</v>
       </c>
       <c r="Q68" s="4">
-        <v>1.5500999999999999E-2</v>
+        <v>1.5506000000000001E-2</v>
       </c>
       <c r="R68" s="4">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="S68" s="4">
         <v>0</v>
       </c>
       <c r="T68" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>3.1252000000000002E-2</v>
       </c>
       <c r="U68" s="2">
         <f>SUM(Q68:T68)</f>
-        <v>4.6752000000000002E-2</v>
+        <v>4.6758000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.25">
@@ -3507,44 +3507,44 @@
         <v>0</v>
       </c>
       <c r="R69" s="4">
-        <v>1.5625E-2</v>
+        <v>1.5498E-2</v>
       </c>
       <c r="S69" s="4">
         <v>0</v>
       </c>
       <c r="T69" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>3.1132E-2</v>
       </c>
       <c r="U69" s="2">
         <f>SUM(Q69:T69)</f>
-        <v>3.1251000000000001E-2</v>
+        <v>4.6629999999999998E-2</v>
       </c>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="I71" s="12" t="s">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="I71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="P71" s="6" t="s">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="P71" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="8"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="11"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
@@ -3639,20 +3639,20 @@
         <v>12</v>
       </c>
       <c r="Q73" s="4">
-        <v>7.8128000000000003E-2</v>
+        <v>7.8021999999999994E-2</v>
       </c>
       <c r="R73" s="4">
-        <v>0.21876300000000001</v>
+        <v>0.125004</v>
       </c>
       <c r="S73" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>1.5507E-2</v>
       </c>
       <c r="T73" s="4">
-        <v>9.0572E-2</v>
+        <v>0.20313600000000001</v>
       </c>
       <c r="U73" s="2">
         <f>SUM(Q73:T73)</f>
-        <v>0.40308900000000003</v>
+        <v>0.42166899999999996</v>
       </c>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.25">
@@ -3698,47 +3698,47 @@
         <v>13</v>
       </c>
       <c r="Q74" s="4">
-        <v>7.8007000000000007E-2</v>
+        <v>9.3756999999999993E-2</v>
       </c>
       <c r="R74" s="4">
-        <v>0.22176399999999999</v>
+        <v>0.10938199999999999</v>
       </c>
       <c r="S74" s="4">
-        <v>3.125E-2</v>
+        <v>1.5506000000000001E-2</v>
       </c>
       <c r="T74" s="4">
-        <v>9.3755000000000005E-2</v>
+        <v>0.20313700000000001</v>
       </c>
       <c r="U74" s="2">
         <f>SUM(Q74:T74)</f>
-        <v>0.42477600000000004</v>
+        <v>0.42178199999999999</v>
       </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="I76" s="12" t="s">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="I76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="P76" s="6" t="s">
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="P76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="8"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="11"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
@@ -3833,20 +3833,20 @@
         <v>12</v>
       </c>
       <c r="Q78" s="4">
-        <v>0.88947600000000004</v>
+        <v>0.93744400000000006</v>
       </c>
       <c r="R78" s="4">
-        <v>3.4525600000000001</v>
+        <v>1.48447</v>
       </c>
       <c r="S78" s="4">
-        <v>0.191942</v>
+        <v>0.17188700000000001</v>
       </c>
       <c r="T78" s="4">
-        <v>1.27817</v>
+        <v>2.44557</v>
       </c>
       <c r="U78" s="2">
         <f>SUM(Q78:T78)</f>
-        <v>5.8121480000000005</v>
+        <v>5.039371</v>
       </c>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.25">
@@ -3892,60 +3892,36 @@
         <v>13</v>
       </c>
       <c r="Q79" s="4">
-        <v>0.88727500000000004</v>
+        <v>0.96869700000000003</v>
       </c>
       <c r="R79" s="4">
-        <v>2.8636699999999999</v>
+        <v>1.4375899999999999</v>
       </c>
       <c r="S79" s="4">
-        <v>0.162467</v>
+        <v>0.21876300000000001</v>
       </c>
       <c r="T79" s="4">
-        <v>1.1427099999999999</v>
+        <v>4.54718</v>
       </c>
       <c r="U79" s="2">
         <f>SUM(Q79:T79)</f>
-        <v>5.0561219999999993</v>
+        <v>7.1722299999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I56:N56"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="P71:U71"/>
+    <mergeCell ref="P76:U76"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="P30:U30"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W9:AB9"/>
+    <mergeCell ref="W14:AB14"/>
     <mergeCell ref="I71:N71"/>
     <mergeCell ref="I76:N76"/>
     <mergeCell ref="P2:U2"/>
@@ -3962,18 +3938,42 @@
     <mergeCell ref="P61:U61"/>
     <mergeCell ref="P66:U66"/>
     <mergeCell ref="P50:U50"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W9:AB9"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="P71:U71"/>
-    <mergeCell ref="P76:U76"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="P30:U30"/>
-    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T58" sqref="T58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <v>1.55502E-2</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="4">
         <v>0</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AB12" s="2">
         <f>SUM(X12:AA12)</f>
-        <v>1.55502E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -1300,20 +1300,20 @@
         <v>12</v>
       </c>
       <c r="X16" s="4">
-        <v>1.5500999999999999E-2</v>
+        <v>1.5505E-2</v>
       </c>
       <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1.5626999999999999E-2</v>
+      </c>
+      <c r="AA16" s="4">
         <v>1.5624000000000001E-2</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>1.5626000000000001E-2</v>
       </c>
       <c r="AB16" s="2">
         <f>SUM(X16:AA16)</f>
-        <v>4.6751000000000001E-2</v>
+        <v>4.6755999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
@@ -1378,20 +1378,20 @@
         <v>13</v>
       </c>
       <c r="X17" s="4">
-        <v>1.5497E-2</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>1.5504E-2</v>
       </c>
       <c r="Z17" s="4">
-        <v>1.5502E-2</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="4">
-        <v>0</v>
+        <v>3.1253000000000003E-2</v>
       </c>
       <c r="AB17" s="2">
         <f>SUM(X17:AA17)</f>
-        <v>4.6626000000000001E-2</v>
+        <v>4.6757000000000007E-2</v>
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
@@ -1556,20 +1556,20 @@
         <v>12</v>
       </c>
       <c r="X21" s="4">
-        <v>9.3621999999999997E-2</v>
+        <v>0.12500700000000001</v>
       </c>
       <c r="Y21" s="4">
-        <v>0.19884599999999999</v>
+        <v>0.109384</v>
       </c>
       <c r="Z21" s="4">
-        <v>3.1253999999999997E-2</v>
+        <v>3.1253000000000003E-2</v>
       </c>
       <c r="AA21" s="4">
-        <v>9.3754000000000004E-2</v>
+        <v>0.21876399999999999</v>
       </c>
       <c r="AB21" s="2">
         <f>SUM(X21:AA21)</f>
-        <v>0.41747600000000001</v>
+        <v>0.48440799999999995</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
@@ -1634,20 +1634,20 @@
         <v>13</v>
       </c>
       <c r="X22" s="4">
-        <v>7.8132999999999994E-2</v>
+        <v>9.3633999999999995E-2</v>
       </c>
       <c r="Y22" s="4">
-        <v>0.19603219999999999</v>
+        <v>0.10938199999999999</v>
       </c>
       <c r="Z22" s="4">
-        <v>1.5628E-2</v>
+        <v>1.5507999999999999E-2</v>
       </c>
       <c r="AA22" s="4">
-        <v>9.3756000000000006E-2</v>
+        <v>0.20313800000000001</v>
       </c>
       <c r="AB22" s="2">
         <f>SUM(X22:AA22)</f>
-        <v>0.38354919999999998</v>
+        <v>0.42166199999999998</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
@@ -1812,20 +1812,20 @@
         <v>12</v>
       </c>
       <c r="X26" s="4">
-        <v>0.93453900000000001</v>
+        <v>0.98431599999999997</v>
       </c>
       <c r="Y26" s="4">
-        <v>3.2726899999999999</v>
+        <v>1.4375899999999999</v>
       </c>
       <c r="Z26" s="4">
-        <v>0.28126699999999999</v>
+        <v>0.21268000000000001</v>
       </c>
       <c r="AA26" s="4">
-        <v>1.3829</v>
+        <v>3.9065099999999999</v>
       </c>
       <c r="AB26" s="2">
         <f>SUM(X26:AA26)</f>
-        <v>5.8713959999999998</v>
+        <v>6.5410959999999996</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
@@ -1890,20 +1890,20 @@
         <v>13</v>
       </c>
       <c r="X27" s="4">
-        <v>0.93361799999999995</v>
+        <v>0.96869000000000005</v>
       </c>
       <c r="Y27" s="4">
-        <v>2.8690699999999998</v>
+        <v>1.3282099999999999</v>
       </c>
       <c r="Z27" s="4">
-        <v>0.28127099999999999</v>
+        <v>0.28126899999999999</v>
       </c>
       <c r="AA27" s="4">
-        <v>1.41875</v>
+        <v>2.2657799999999999</v>
       </c>
       <c r="AB27" s="2">
         <f>SUM(X27:AA27)</f>
-        <v>5.5027090000000003</v>
+        <v>4.8439490000000003</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">

--- a/3-4LabVector/Spartos analize.xlsx
+++ b/3-4LabVector/Spartos analize.xlsx
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,11 +196,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,12 +224,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,6 +238,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N79"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,107 +567,107 @@
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="P2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="W2" s="8" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="W2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="P3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="W3" s="7" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="W3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11"/>
-      <c r="W4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="P4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="9"/>
+      <c r="W4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -877,44 +892,44 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8" s="6"/>
       <c r="I8" s="1"/>
       <c r="P8" s="1"/>
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="P9" s="9" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="P9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="W9" s="9" t="s">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9"/>
+      <c r="W9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="11"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -1068,17 +1083,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>1.55502E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="G12" s="2">
         <f>SUM(C12:F12)</f>
-        <v>1.55502E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>13</v>
@@ -1139,38 +1154,38 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="6" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="I14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="P14" s="9" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="P14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="W14" s="9" t="s">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="9"/>
+      <c r="W14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="11"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1243,20 +1258,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="4">
-        <v>1.5500999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>1.5624000000000001E-2</v>
+        <v>1.5502E-2</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>3.1252000000000002E-2</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(C16:F16)</f>
-        <v>4.6751000000000001E-2</v>
+        <v>4.6754000000000004E-2</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>12</v>
@@ -1321,20 +1336,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="4">
-        <v>1.5497E-2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
         <v>1.5626999999999999E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>1.5502E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>3.1251000000000001E-2</v>
       </c>
       <c r="G17" s="2">
         <f>SUM(C17:F17)</f>
-        <v>4.6626000000000001E-2</v>
+        <v>4.6878000000000003E-2</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>13</v>
@@ -1395,38 +1410,38 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="I19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="P19" s="9" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="P19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
-      <c r="W19" s="9" t="s">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="9"/>
+      <c r="W19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="11"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="9"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
@@ -1499,20 +1514,20 @@
         <v>12</v>
       </c>
       <c r="C21" s="4">
-        <v>9.3621999999999997E-2</v>
+        <v>8.3629999999999996E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>0.19884599999999999</v>
+        <v>0.10938000000000001</v>
       </c>
       <c r="E21" s="4">
         <v>3.1253999999999997E-2</v>
       </c>
       <c r="F21" s="4">
-        <v>9.3754000000000004E-2</v>
+        <v>0.20313700000000001</v>
       </c>
       <c r="G21" s="2">
         <f>SUM(C21:F21)</f>
-        <v>0.41747600000000001</v>
+        <v>0.42740100000000003</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>12</v>
@@ -1577,20 +1592,20 @@
         <v>13</v>
       </c>
       <c r="C22" s="4">
-        <v>7.8132999999999994E-2</v>
+        <v>8.4512000000000004E-2</v>
       </c>
       <c r="D22" s="4">
-        <v>0.19603219999999999</v>
+        <v>0.11590499999999999</v>
       </c>
       <c r="E22" s="4">
-        <v>1.5628E-2</v>
+        <v>1.5626999999999999E-2</v>
       </c>
       <c r="F22" s="4">
-        <v>9.3756000000000006E-2</v>
+        <v>0.200542</v>
       </c>
       <c r="G22" s="2">
         <f>SUM(C22:F22)</f>
-        <v>0.38354919999999998</v>
+        <v>0.41658600000000001</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>13</v>
@@ -1651,38 +1666,38 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="6" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="I24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="P24" s="9" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="P24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="W24" s="9" t="s">
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="9"/>
+      <c r="W24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="11"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="9"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
@@ -1755,20 +1770,20 @@
         <v>12</v>
       </c>
       <c r="C26" s="4">
-        <v>0.93453900000000001</v>
+        <v>1.04731</v>
       </c>
       <c r="D26" s="4">
-        <v>3.2726899999999999</v>
+        <v>1.57823</v>
       </c>
       <c r="E26" s="4">
-        <v>0.28126699999999999</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1.3829</v>
+        <v>0.23438999999999999</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4.6272799999999998</v>
       </c>
       <c r="G26" s="2">
         <f>SUM(C26:F26)</f>
-        <v>5.8713959999999998</v>
+        <v>7.4872099999999993</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
@@ -1836,17 +1851,17 @@
         <v>0.93361799999999995</v>
       </c>
       <c r="D27" s="4">
-        <v>2.8690699999999998</v>
+        <v>1.3438399999999999</v>
       </c>
       <c r="E27" s="4">
-        <v>0.28127099999999999</v>
+        <v>0.25001899999999999</v>
       </c>
       <c r="F27" s="4">
-        <v>1.41875</v>
+        <v>2.7970600000000001</v>
       </c>
       <c r="G27" s="2">
         <f>SUM(C27:F27)</f>
-        <v>5.5027090000000003</v>
+        <v>5.3245369999999994</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>13</v>
@@ -1907,56 +1922,56 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="7" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="P29" s="12" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="P29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="P30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="11"/>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="I30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="P30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="9"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
@@ -2081,11 +2096,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>7.6810000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2">
         <f>SUM(C33:F33)</f>
-        <v>7.6810000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>13</v>
@@ -2127,35 +2142,35 @@
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="B34" s="6"/>
       <c r="I34" s="1"/>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="I35" s="6" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="I35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="P35" s="9" t="s">
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="P35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="11"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="9"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
@@ -2271,7 +2286,7 @@
         <v>13</v>
       </c>
       <c r="C38" s="4">
-        <v>1.9970000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -2280,11 +2295,11 @@
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>2.003E-3</v>
+        <v>1.5626000000000001E-2</v>
       </c>
       <c r="G38" s="2">
         <f>SUM(C38:F38)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.5626000000000001E-2</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>13</v>
@@ -2326,30 +2341,30 @@
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="I40" s="6" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="I40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="P40" s="9" t="s">
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="P40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="11"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="9"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
@@ -2406,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="4">
-        <v>1.5506000000000001E-2</v>
+        <v>1.5509E-2</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -2415,11 +2430,11 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>1.5618E-2</v>
+        <v>3.1252000000000002E-2</v>
       </c>
       <c r="G42" s="2">
         <f>SUM(C42:F42)</f>
-        <v>3.1123999999999999E-2</v>
+        <v>4.6761000000000004E-2</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>12</v>
@@ -2465,7 +2480,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="4">
-        <v>1.55E-2</v>
+        <v>1.5507999999999999E-2</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -2474,11 +2489,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>1.5624000000000001E-2</v>
+        <v>4.6876000000000001E-2</v>
       </c>
       <c r="G43" s="2">
         <f>SUM(C43:F43)</f>
-        <v>3.1123999999999999E-2</v>
+        <v>6.2384000000000002E-2</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>13</v>
@@ -2520,30 +2535,30 @@
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="I45" s="6" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="I45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="P45" s="9" t="s">
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="P45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="11"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="9"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -2600,20 +2615,20 @@
         <v>12</v>
       </c>
       <c r="C47" s="4">
-        <v>7.8123999999999999E-2</v>
+        <v>7.8003000000000003E-2</v>
       </c>
       <c r="D47" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>0.10938199999999999</v>
       </c>
       <c r="E47" s="4">
-        <v>1.5625E-2</v>
+        <v>3.1253000000000003E-2</v>
       </c>
       <c r="F47" s="4">
-        <v>9.3755000000000005E-2</v>
+        <v>0.18751200000000001</v>
       </c>
       <c r="G47" s="2">
         <f>SUM(C47:F47)</f>
-        <v>0.20313100000000001</v>
+        <v>0.40615000000000001</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>12</v>
@@ -2659,20 +2674,20 @@
         <v>13</v>
       </c>
       <c r="C48" s="4">
-        <v>7.9642000000000004E-2</v>
+        <v>9.3631000000000006E-2</v>
       </c>
       <c r="D48" s="4">
-        <v>1.5626999999999999E-2</v>
+        <v>0.10938000000000001</v>
       </c>
       <c r="E48" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>3.1253999999999997E-2</v>
       </c>
       <c r="F48" s="4">
-        <v>9.3754000000000004E-2</v>
+        <v>0.18751200000000001</v>
       </c>
       <c r="G48" s="2">
         <f>SUM(C48:F48)</f>
-        <v>0.20464900000000003</v>
+        <v>0.42177700000000001</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>13</v>
@@ -2714,30 +2729,30 @@
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="I50" s="6" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="I50" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="P50" s="9" t="s">
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="P50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="11"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="9"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
@@ -2794,20 +2809,20 @@
         <v>12</v>
       </c>
       <c r="C52" s="4">
-        <v>0.94158600000000003</v>
+        <v>1.0155799999999999</v>
       </c>
       <c r="D52" s="4">
-        <v>0.15626300000000001</v>
+        <v>1.5938600000000001</v>
       </c>
       <c r="E52" s="4">
-        <v>0.182006</v>
+        <v>0.31252200000000002</v>
       </c>
       <c r="F52" s="4">
-        <v>1.01938</v>
+        <v>3.8127499999999999</v>
       </c>
       <c r="G52" s="2">
         <f>SUM(C52:F52)</f>
-        <v>2.2992349999999999</v>
+        <v>6.734712</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>12</v>
@@ -2853,20 +2868,20 @@
         <v>13</v>
       </c>
       <c r="C53" s="4">
-        <v>0.90477099999999999</v>
+        <v>0.98431900000000006</v>
       </c>
       <c r="D53" s="4">
-        <v>0.14063400000000001</v>
+        <v>1.70323</v>
       </c>
       <c r="E53" s="4">
-        <v>0.15976499999999999</v>
+        <v>0.32815</v>
       </c>
       <c r="F53" s="4">
-        <v>0.99831199999999998</v>
+        <v>3.2345899999999999</v>
       </c>
       <c r="G53" s="2">
         <f>SUM(C53:F53)</f>
-        <v>2.2034819999999997</v>
+        <v>6.2502890000000004</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>13</v>
@@ -2908,56 +2923,56 @@
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="I55" s="7" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="I55" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="P55" s="7" t="s">
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="P55" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="I56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="P56" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="11"/>
+      <c r="B56" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="I56" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="P56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="9"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
@@ -3128,35 +3143,35 @@
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
+      <c r="B60" s="6"/>
       <c r="I60" s="1"/>
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="I61" s="6" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="I61" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="P61" s="9" t="s">
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="P61" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="11"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="9"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
@@ -3222,11 +3237,11 @@
         <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>0</v>
+        <v>1.5502999999999999E-2</v>
       </c>
       <c r="G63" s="2">
         <f>SUM(C63:F63)</f>
-        <v>0</v>
+        <v>1.5502999999999999E-2</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>12</v>
@@ -3281,11 +3296,11 @@
         <v>0</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>1.5626000000000001E-2</v>
       </c>
       <c r="G64" s="2">
         <f>SUM(C64:F64)</f>
-        <v>0</v>
+        <v>1.5626000000000001E-2</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>13</v>
@@ -3327,30 +3342,30 @@
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="I66" s="6" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="I66" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="P66" s="9" t="s">
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="P66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="11"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="9"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
@@ -3407,20 +3422,20 @@
         <v>12</v>
       </c>
       <c r="C68" s="4">
-        <v>1.5500999999999999E-2</v>
+        <v>1.5637999999999999E-2</v>
       </c>
       <c r="D68" s="4">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
       </c>
       <c r="F68" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>3.1252000000000002E-2</v>
       </c>
       <c r="G68" s="2">
         <f>SUM(C68:F68)</f>
-        <v>4.6752000000000002E-2</v>
+        <v>4.6890000000000001E-2</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>12</v>
@@ -3466,20 +3481,20 @@
         <v>13</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>1.55E-2</v>
       </c>
       <c r="D69" s="4">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
       </c>
       <c r="F69" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>3.1253000000000003E-2</v>
       </c>
       <c r="G69" s="2">
         <f>SUM(C69:F69)</f>
-        <v>3.1251000000000001E-2</v>
+        <v>4.6753000000000003E-2</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>13</v>
@@ -3521,30 +3536,30 @@
       </c>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="I71" s="6" t="s">
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="I71" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="P71" s="9" t="s">
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="P71" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="11"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="9"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
@@ -3601,20 +3616,20 @@
         <v>12</v>
       </c>
       <c r="C73" s="4">
-        <v>7.8128000000000003E-2</v>
+        <v>7.7998999999999999E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>0.21876300000000001</v>
+        <v>0.10938299999999999</v>
       </c>
       <c r="E73" s="4">
-        <v>1.5626000000000001E-2</v>
+        <v>3.1253000000000003E-2</v>
       </c>
       <c r="F73" s="4">
-        <v>9.0572E-2</v>
+        <v>0.20313700000000001</v>
       </c>
       <c r="G73" s="2">
         <f>SUM(C73:F73)</f>
-        <v>0.40308900000000003</v>
+        <v>0.42177200000000004</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>12</v>
@@ -3660,20 +3675,20 @@
         <v>13</v>
       </c>
       <c r="C74" s="4">
-        <v>7.8007000000000007E-2</v>
+        <v>7.8002000000000002E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>0.22176399999999999</v>
+        <v>0.10938000000000001</v>
       </c>
       <c r="E74" s="4">
-        <v>3.125E-2</v>
+        <v>1.5628E-2</v>
       </c>
       <c r="F74" s="4">
-        <v>9.3755000000000005E-2</v>
+        <v>0.21876100000000001</v>
       </c>
       <c r="G74" s="2">
         <f>SUM(C74:F74)</f>
-        <v>0.42477600000000004</v>
+        <v>0.42177100000000001</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>13</v>
@@ -3715,30 +3730,30 @@
       </c>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="I76" s="6" t="s">
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="I76" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="P76" s="9" t="s">
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="P76" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="11"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="9"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
@@ -3795,20 +3810,20 @@
         <v>12</v>
       </c>
       <c r="C78" s="4">
-        <v>0.88947600000000004</v>
+        <v>0.95306199999999996</v>
       </c>
       <c r="D78" s="4">
-        <v>3.4525600000000001</v>
+        <v>1.53135</v>
       </c>
       <c r="E78" s="4">
-        <v>0.191942</v>
+        <v>0.21876499999999999</v>
       </c>
       <c r="F78" s="4">
-        <v>1.27817</v>
+        <v>4.4846700000000004</v>
       </c>
       <c r="G78" s="2">
         <f>SUM(C78:F78)</f>
-        <v>5.8121480000000005</v>
+        <v>7.1878469999999997</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>12</v>
@@ -3854,20 +3869,20 @@
         <v>13</v>
       </c>
       <c r="C79" s="4">
-        <v>0.88727500000000004</v>
+        <v>1.3125800000000001</v>
       </c>
       <c r="D79" s="4">
-        <v>2.8636699999999999</v>
+        <v>1.54698</v>
       </c>
       <c r="E79" s="4">
-        <v>0.162467</v>
+        <v>0.20313600000000001</v>
       </c>
       <c r="F79" s="4">
-        <v>1.1427099999999999</v>
+        <v>5.9632500000000004</v>
       </c>
       <c r="G79" s="2">
         <f>SUM(C79:F79)</f>
-        <v>5.0561219999999993</v>
+        <v>9.0259460000000011</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>13</v>
@@ -3910,18 +3925,42 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="P71:U71"/>
-    <mergeCell ref="P76:U76"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="P30:U30"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W9:AB9"/>
-    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="I66:N66"/>
     <mergeCell ref="I71:N71"/>
     <mergeCell ref="I76:N76"/>
     <mergeCell ref="P2:U2"/>
@@ -3938,42 +3977,18 @@
     <mergeCell ref="P61:U61"/>
     <mergeCell ref="P66:U66"/>
     <mergeCell ref="P50:U50"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I56:N56"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W9:AB9"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="P71:U71"/>
+    <mergeCell ref="P76:U76"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="P30:U30"/>
+    <mergeCell ref="P35:U35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
